--- a/Hardware/01_PCB/版本说明.xlsx
+++ b/Hardware/01_PCB/版本说明.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDF7B6CA-F1D0-4F45-8FF6-B7D0E76FB8EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F39B9E3-6D55-45FA-AD47-A6EDA0C8D421}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PCB_1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASM117-3.3发热严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB_1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改1.1版本的布线结构 更改IO控制引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +76,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -78,8 +117,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B4"/>
+  <dimension ref="A2:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -374,25 +425,87 @@
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I4:K4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>